--- a/readme/BI开发文档-详细设计-表格.xlsx
+++ b/readme/BI开发文档-详细设计-表格.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="antdTable" sheetId="1" r:id="rId1"/>
     <sheet name="pivotDiy" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="antdtable数据中间层" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>antdTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,82 @@
   </si>
   <si>
     <t>pivotDiy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antdtable数据中间层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：antdtable在展示数据的时候需要将数据拼接成特殊格式的json字符串，开发需求中有一些 计算、格式化、固定单元格等操作，让代码变得臃肿不可读。
+所以抽离出一个数据中间层，将后台查询返回的数据根据配置进行运算生成新的json数据，到了antdtable图表的时候再根据新json中的配置进行相应的显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "header": ["集团", "公司", "年龄", "人数"],
+ "id": ["f667b39d71c484417afb346b6a8d9bba", "7f7fb59aa6090a1c0f27fe6cc312c078", "f7808c3469db857b87454fbfe588b778", "4d2d019b60f93b20f75ff6d757abc0a0"],
+ "body": [[{
+  "f667b39d71c484417afb346b6a8d9bba": {
+   "value": "上海智思信息科技有限公司",
+   "url": "true",
+   "fixed": "left",
+   "width": "200",
+   "color": "#00000",
+   "relation": "true"
+  }
+ },
+ {
+  "7f7fb59aa6090a1c0f27fe6cc312c078": {
+   "value": "上海智思信息科技有限公司",
+   "url": "true",
+   "fixed": "left",
+   "width": "200",
+   "color": "#00000",
+   "relation": "true"
+  }
+ },
+ {
+  "f7808c3469db857b87454fbfe588b778": {
+   "value": "0",
+   "url": "true",
+   "fixed": "left",
+   "width": "200",
+   "color": "#00000",
+   "relation": "true"
+  }
+ },
+ {
+  "4d2d019b60f93b20f75ff6d757abc0a0": {
+   "value": "1",
+   "url": "true",
+   "fixed": "left",
+   "width": "200",
+   "color": "#00000",
+   "relation": "true"
+  }
+ }]]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mChart(m_charts表), dateSetList(后端查询的数据), editModel(编辑模式类型), dragactStyle(dract显示Json), idColumns(所有字段的对象), item(m_dashbaord中当前图表的json)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -346,11 +422,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,6 +466,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,13 +487,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,14 +840,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="2:17" ht="15">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
@@ -831,20 +964,20 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="2:17" ht="15">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
@@ -1134,14 +1267,14 @@
       <c r="M32" s="7"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="40" spans="2:13" ht="51" customHeight="1">
       <c r="B40" s="12" t="s">
@@ -1273,24 +1406,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
     <mergeCell ref="B54:M54"/>
     <mergeCell ref="B37:C38"/>
     <mergeCell ref="B40:M40"/>
@@ -1300,6 +1415,24 @@
     <mergeCell ref="B48:M48"/>
     <mergeCell ref="B50:M50"/>
     <mergeCell ref="B52:M52"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,21 +1443,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:4">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1337,12 +1470,409 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:17">
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="6" spans="3:17" ht="61.5" customHeight="1">
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="3:17" ht="140.25" customHeight="1">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E14:Q29"/>
+    <mergeCell ref="C14:D29"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:Q11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:Q13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
